--- a/Marketing/roomme.dsb.xlsx
+++ b/Marketing/roomme.dsb.xlsx
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">

--- a/Marketing/roomme.dsb.xlsx
+++ b/Marketing/roomme.dsb.xlsx
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">

--- a/Marketing/roomme.dsb.xlsx
+++ b/Marketing/roomme.dsb.xlsx
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">

--- a/Marketing/roomme.dsb.xlsx
+++ b/Marketing/roomme.dsb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B504"/>
+  <dimension ref="A1:B399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ethan_jabra</t>
+          <t>kayleerivera.a</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aubrie.a</t>
+          <t>marcogutierrez045</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>finley_rb</t>
+          <t>conor_r2001</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>matth3w.i</t>
+          <t>brycereeburgh</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>amobinnn</t>
+          <t>syackley</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>meganfarran_</t>
+          <t>_.ebrima</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>its.abhi4</t>
+          <t>macie_kendrick</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>itsjayantt</t>
+          <t>deller_40</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>scrusssell05</t>
+          <t>alicecowdow</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>caleb_webb_04</t>
+          <t>vegaevangelyn</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>davidriddlevpi</t>
+          <t>noah.macdonald42</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jackboyle10</t>
+          <t>emmasullivn</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>stu_goblue</t>
+          <t>curious056</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ethan.hackenberg</t>
+          <t>willr4</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lexi_joan_taylor</t>
+          <t>riyashahh._</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>libbiesommardahl</t>
+          <t>kenna112704</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>aymansts</t>
+          <t>mwise723</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>gnarlyguitar</t>
+          <t>racheldellamar</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lucas_sorraco</t>
+          <t>k_hallissey</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>justinnmay</t>
+          <t>lucaliaga_</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>isaacyun9</t>
+          <t>tbwalsh3</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>shreyarmalhotra</t>
+          <t>tthegreat_666</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hayden.z_05</t>
+          <t>nathanbrannon_</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>susanne___devore</t>
+          <t>david_.mathews</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>_javier_millan_</t>
+          <t>d.zorovich</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>levi_may20</t>
+          <t>seanpfoster23</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>naterrichards</t>
+          <t>arnavjoshi.117</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>samie_tepes</t>
+          <t>armitage_erin</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>weiboming2001</t>
+          <t>peyton.powers8</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>charlie_pasquarella</t>
+          <t>maddie.mooney</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>_jacobchang</t>
+          <t>chelseajhamilton</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>_heon__</t>
+          <t>sofiad_dance</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>lorenzossilva</t>
+          <t>abbyhike</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>beachymom85</t>
+          <t>kumarram3574</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>beyonce_and</t>
+          <t>long_man_sam</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>hyltonboitnott_</t>
+          <t>t_brown8</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>_joeygould_</t>
+          <t>yuvanesh.an</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ashleyhfitzg</t>
+          <t>adelinebozeman</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>asphodelwave</t>
+          <t>n0t_parker_park</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>misticz.saverz1</t>
+          <t>cspiegler_</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>graysonjamees</t>
+          <t>_bellacafarelli</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>_bellacafarelli</t>
+          <t>marialrudnick</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>noradaniellenora</t>
+          <t>katelynfordd</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ankellam</t>
+          <t>m.dickler</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>housebriana</t>
+          <t>just_magz</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cameronallenswrld</t>
+          <t>colholohan</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>graham.kuehl</t>
+          <t>maddiefarmerr</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>just_magz</t>
+          <t>mattsexton007</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>kxng.jay38</t>
+          <t>adamkoff_</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sydneyyhogbinn</t>
+          <t>yangyichenethan</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>andy_h730</t>
+          <t>angela_tiju</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>timmy_furin</t>
+          <t>oaklevelphil</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>olivierkruisdijk</t>
+          <t>bakingisforlovers</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sivadyalc</t>
+          <t>user28272827282</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>diegocuadral</t>
+          <t>bensonblevinss</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>erinburmaster</t>
+          <t>brendanmcl615</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>marialrudnick</t>
+          <t>chrismcdz</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>mikayla_mccowan</t>
+          <t>brett_renfrow_</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>harper7753</t>
+          <t>anthonyviselli_</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>katelynclemet</t>
+          <t>justingallihugh_</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>haleynicole.b</t>
+          <t>chrisingx</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ewan.andrew_</t>
+          <t>dj_auralian</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sofia_dorazio</t>
+          <t>ellis__32</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>aydenelh</t>
+          <t>noname.4694</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>_emilyjane25</t>
+          <t>abby.grovee</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>aamani_kotla</t>
+          <t>_colinmckenna_</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>adamkoff_</t>
+          <t>henry_gutshall</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>meghanmagoon</t>
+          <t>babylewiss</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>z_frampton</t>
+          <t>mike.tucker.923</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>addieferriter</t>
+          <t>_.dakota.cornett</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sydney_eliza</t>
+          <t>ellie.porterr</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>thecoopblacksburg</t>
+          <t>calebtownsendd</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>landon_bennett2</t>
+          <t>stephen.bowman</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>jackbsisk</t>
+          <t>fishingrun24</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>pdr4vt</t>
+          <t>halea_alexis</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>jenn_linn_</t>
+          <t>dmwhitley3</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>patgelinas_83</t>
+          <t>vinay.kumar114</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>s0phia.m</t>
+          <t>alanakpowell</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>landonjnydegger</t>
+          <t>ben_stengel_</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>nick_echeverri</t>
+          <t>jakeperrine23</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>mere.dith.g.23</t>
+          <t>d_notme</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>amber11hh</t>
+          <t>ellasmcnally</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>aliffsyah6</t>
+          <t>annafritt</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>_two.dream</t>
+          <t>ethan.brown33</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>seansmith7465</t>
+          <t>alexisanacho125</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>hunter_ba14</t>
+          <t>niko.jedrzejewski</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>savysnyder_</t>
+          <t>soniah_leigh</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>staglianosteve</t>
+          <t>ella_6729</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>azekert</t>
+          <t>jon_sallee15</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>justin.bornstein</t>
+          <t>spvantiem</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>zachglesius</t>
+          <t>syed.ma5ood</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>landchovies</t>
+          <t>lennys5614</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>_sheloves2x</t>
+          <t>_.doriscott._</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ankit__parekh</t>
+          <t>pete.elder</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>juliasuchh</t>
+          <t>aamani_kotla</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>miaesworthy</t>
+          <t>sabrinxhf</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>angela_tiju</t>
+          <t>4_.jelly._4</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>gregnel11</t>
+          <t>cabello.eric</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>joshua_debeer</t>
+          <t>amyhashking</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>halea_alexis</t>
+          <t>som.a.ri</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ryanlewek</t>
+          <t>gregnel11</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>jharrell69</t>
+          <t>seth.wilbanks</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>harper.moore05</t>
+          <t>lindagiffing</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>alyssa_renee1021</t>
+          <t>sofia_dorazio</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>richa.prakashh</t>
+          <t>kimberly_willard_abstract_art</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>jakeperrine23</t>
+          <t>romandolyn</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>vt_sinklover</t>
+          <t>emiliezinda4</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>julesvng_</t>
+          <t>gavin.larsen_</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ricardo30pg</t>
+          <t>sdkrishnaa</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>_tyler._76</t>
+          <t>davis_gk</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>hokiecmac</t>
+          <t>himadri_m_</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>greysoncurth</t>
+          <t>rvdavidd</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>willfriedman2k19</t>
+          <t>katelyn_finn</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>logan.herskovitz</t>
+          <t>jpwilli23</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>virendrakumarbharti10</t>
+          <t>mac.harper1</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>deanhryn</t>
+          <t>mikayla_mccowan</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>crottykid4</t>
+          <t>amber11hh</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>trevsorensen</t>
+          <t>coreyhanger</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>davis_gk</t>
+          <t>jackbenzing</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>fahd.kamran</t>
+          <t>alexkim2.0</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,807 +1648,807 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>katelyn_finn</t>
+          <t>libbiesommardahl</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>lcastill0</t>
+          <t>jess.knox</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>dylan.decambre</t>
+          <t>trevsorensen</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ryannlawson_</t>
+          <t>dabney.ransone</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>xavier.ossman</t>
+          <t>rivhotsauce</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ch4rl0tt3s</t>
+          <t>calistatibbs</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>beyonceskye3301</t>
+          <t>amobinnn</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>lucaliaga_</t>
+          <t>randohokie</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>jordan_brittle8</t>
+          <t>_tyler._76</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>lauren.pete</t>
+          <t>hokies21</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>fedetafur</t>
+          <t>amanda_please0o</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>hersoulwasindigo</t>
+          <t>addieferriter</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>mario_loza31</t>
+          <t>charlotte.goodee</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>dragonknight_construdo</t>
+          <t>michael_saunders7793</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>tbwalsh3</t>
+          <t>usuallyharsh</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>seneca2022</t>
+          <t>ru_kham</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>_raltis_</t>
+          <t>lukeypookiej</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>capcitydb</t>
+          <t>jakemonroe04</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>iitss.summee</t>
+          <t>c4thmorton</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>babylewiss</t>
+          <t>jimmyytthompson</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ian_belforte</t>
+          <t>gotardsam</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>evelynshawver</t>
+          <t>navidadnat</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>bowhntbabe</t>
+          <t>rach_5258</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>eleanorrnoell</t>
+          <t>milanjlowe</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>elizabethbfowler</t>
+          <t>_nassimabouhabib_</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>cole_fuller22</t>
+          <t>lexichotkowski</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>bb4546ss</t>
+          <t>richa.prakashh</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>tineanik_3</t>
+          <t>stellacarney_</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>malkova_art32</t>
+          <t>smithslandingapts</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>som.a.ri</t>
+          <t>joshua_debeer</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>curious056</t>
+          <t>fahd.kamran</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>katelyn.brooks12</t>
+          <t>ryan_zimmerman465</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>hokie_chutto</t>
+          <t>journeyydaviss</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>hokiegirl01</t>
+          <t>jphelms__</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>cmantonelos</t>
+          <t>liamsmith42</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>bisheeesh</t>
+          <t>nklein89</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>frzn_memories</t>
+          <t>beecareynolds</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>mia.arguetaa</t>
+          <t>lexi_joan_taylor</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>brett_renfrow_</t>
+          <t>rebecca.ch24</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>emmanuelbbenitez</t>
+          <t>josh_.naldo</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>dmwhitley3</t>
+          <t>rowanporter13</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>jod_.zun</t>
+          <t>mollyhatfield07</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>jdreinhart17</t>
+          <t>dhruv_addanki</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t.smith1969</t>
+          <t>ellie_mccormick222</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>stephani3miller</t>
+          <t>amyanderson664</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>micahusby</t>
+          <t>emanelouassi</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>samweber76</t>
+          <t>arjuunnn_</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>aubreyyounggg</t>
+          <t>curthuffman1234</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ben.bush0</t>
+          <t>sophiabochis</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>sanat.kas03</t>
+          <t>thomasdisharoon</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>norabora222</t>
+          <t>jacob_downing_01</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>zilozman</t>
+          <t>augusto_ym</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>katharinesmith.20</t>
+          <t>andreeee3k</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>gray_alawrence</t>
+          <t>hmkgocray</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>fritoboy77</t>
+          <t>ninahhuynh</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>grayson.bunn</t>
+          <t>marcus_vpd</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>gunnarcasano</t>
+          <t>virendrakumarbharti10</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>iluvcmad</t>
+          <t>bridget.hurley102</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>spencerchowder</t>
+          <t>queennn_jesss</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>kimberly_willard_abstract_art</t>
+          <t>trevorhoe</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>divideby7</t>
+          <t>ar15kd</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>kkaldes</t>
+          <t>virginiafornash</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>partlyartie</t>
+          <t>billy.t.02</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>liamhopee</t>
+          <t>ethan.hackenberg</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>blxcktay</t>
+          <t>courtando03</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>briandelvecchio</t>
+          <t>madisonbroyhill</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>gabucho2004</t>
+          <t>cash.emn</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>capoflock</t>
+          <t>_as651</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>vlbell24</t>
+          <t>ch0psteek</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>laurennnpeyton</t>
+          <t>beanboozlr</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>alexzoldan_</t>
+          <t>ame.lette</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>govinds_21</t>
+          <t>ashlinhickss</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>devan_ganesh</t>
+          <t>ch4rl0tt3s</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>sara_qazzaz</t>
+          <t>kbfrazee</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>dylan.lofgreno_o</t>
+          <t>marinazuppas</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>pokie021761jeep1997</t>
+          <t>sweetsarahcline</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>rhianaskyemccoy03</t>
+          <t>chris.tennhardt</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>gavyn.blye</t>
+          <t>teresi_michael</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>bokyoungkim0211</t>
+          <t>julietpasierb</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>mherrera.7</t>
+          <t>_joeygould_</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>sergioatorres24</t>
+          <t>sanat.kas03</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>sharif_mani</t>
+          <t>ajgreen_28</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>akenziehall</t>
+          <t>jackamcgann3</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>its_a_me_long</t>
+          <t>bigred4463</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>joellensurface</t>
+          <t>sam.studenic</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>markwendyhalsey</t>
+          <t>meghanmagoon</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>willr4</t>
+          <t>samreyn05</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>zoeyries</t>
+          <t>laylarudnick</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>hannah_nofziger</t>
+          <t>lindakennedy4235</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>davdflanagan</t>
+          <t>ashleyvitulli</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>sarah.brooke</t>
+          <t>shunyuyao515</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>xrqos</t>
+          <t>eddie.berlin</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>lilly_olejnicki</t>
+          <t>rizerlea</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>amber89dawn</t>
+          <t>saving.private.chinna</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>its.bismah16</t>
+          <t>dylan.lofgreno_o</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>andreeee3k</t>
+          <t>jeffrey._hubler</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>scott.spencerjr</t>
+          <t>imannzahraa</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>rajnandaniraj203</t>
+          <t>spikeeyes</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>dhruv.cr3</t>
+          <t>brittanychisena</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>nicholas.honer</t>
+          <t>briluellen</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>maddox.r.johnson</t>
+          <t>anta.raj</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>angelt.soto</t>
+          <t>alyssa_renee1021</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>heflin6439</t>
+          <t>peter.chiarello</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>reaganahansen</t>
+          <t>martinxdc1</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>nyoung2114</t>
+          <t>asma_aadiba</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>wyatthambrick</t>
+          <t>maureenapeters_</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>mdugan357</t>
+          <t>_heon__</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ben.young.524</t>
+          <t>nawfalelwannas</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>jay.king31</t>
+          <t>jenn_linn_</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>syackley</t>
+          <t>heather.haas2018</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>marie.cacciabaudo</t>
+          <t>rajnandaniraj203</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>nawfalelwannas</t>
+          <t>kayla.keplinger</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>liliana_gamiz</t>
+          <t>jjazm1n3</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>brokmontesano</t>
+          <t>jackson.egle</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>jackhymans</t>
+          <t>meowtiner</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>saraah.lizz</t>
+          <t>crottykid4</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>rivhotsauce</t>
+          <t>iitss.summee</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>brosemones_22</t>
+          <t>kerriganallred</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>audreyvu30</t>
+          <t>ricardo30pg</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>charlietquinn</t>
+          <t>samupton0424</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ninalose9</t>
+          <t>mark.ss__</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>fen10_</t>
+          <t>william___hong</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ben.petrella</t>
+          <t>elijah_klee</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>mariezenzie_art</t>
+          <t>dhruv.cr3</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>d_mase13</t>
+          <t>jenna.schrage</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>lucas.richey</t>
+          <t>makayla_r18</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>rachel_brown_6</t>
+          <t>adrivalentin_</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>jacobbloe</t>
+          <t>gnarlyguitar</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>miah.fisher</t>
+          <t>gunnarcasano</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>emilyagibb</t>
+          <t>lauren.bolte</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>mallory.hook</t>
+          <t>rae.bro</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ewright0611</t>
+          <t>dimarco83</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>simmi_khls</t>
+          <t>jack_schardt</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>_lanebaker</t>
+          <t>brentthaxtongolf</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>trishaapahari</t>
+          <t>arihitaaa</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>jacksonbuck_</t>
+          <t>kc.carney</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>lennys5614</t>
+          <t>salif_tra</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ali_lifts05</t>
+          <t>sivadyalc</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>tuckerrbrownn</t>
+          <t>isabellekoster_</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>jackluehrs_</t>
+          <t>hannah_nofziger</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>soren.0lsen</t>
+          <t>isabelamirranda</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>hmkgocray</t>
+          <t>therealallyb_</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>joe.cristt</t>
+          <t>malindamaxwell_</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>alexandretay1or</t>
+          <t>mariewickk</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>anthonyviselli_</t>
+          <t>fiachia69</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>twodeepvt</t>
+          <t>tennred82</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>nklein89</t>
+          <t>chetmorris.66</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>sara.blades</t>
+          <t>s0phia.m</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>tombatthany</t>
+          <t>kwolfe.05</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>abro.cadabruhhh</t>
+          <t>nick.marricone</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>natie_davis</t>
+          <t>jevans_a7</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>jack_kw13</t>
+          <t>josh.sims2</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>_anaknaylor</t>
+          <t>egclimb3</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>mrehrig2</t>
+          <t>zilozman</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>phoebebaxter2</t>
+          <t>adam.zmawloud</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>jdh.27</t>
+          <t>kieran.sankowsky</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>matthewmartinn18</t>
+          <t>jakehendel2</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>_meghnabanerjee_</t>
+          <t>j_shook2</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>sabrinxhf</t>
+          <t>weiboming2001</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>vegaevangelyn</t>
+          <t>thelandonmiles</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>k1pinstripelegend</t>
+          <t>myah2ta1l</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>thomas_khm</t>
+          <t>hassanromyo</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>max.pertsoff</t>
+          <t>katharinesmith.20</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>briluellen</t>
+          <t>lilahshepherd</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>trent.estes</t>
+          <t>ryanchevalier34</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>rayanrehman_</t>
+          <t>megansmelko</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>zoes_not_home</t>
+          <t>govinds_21</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>samupton0424</t>
+          <t>madison.coferr</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>jahlani.eich</t>
+          <t>michaelcwandel</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>yashili_84</t>
+          <t>kcfr14</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>irma_panjikidze</t>
+          <t>shea.parcell</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>angie.c.eugenis</t>
+          <t>loganrawlings</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>mmariosoaress</t>
+          <t>court.wilson01</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>walid.habibi_</t>
+          <t>angelt.soto</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>lukeypookiej</t>
+          <t>mariezenzie_art</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>tommy_.le</t>
+          <t>lucas_kochh_</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>nick.laffey1</t>
+          <t>_lanebaker</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>jpwilli23</t>
+          <t>bellagormley</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>maxkt20</t>
+          <t>tcw0330</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>martinxdc1</t>
+          <t>shreyabaskaran</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>surielyoussef</t>
+          <t>noradaniellenora</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>fishingrun24</t>
+          <t>eba5016</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>hixeok</t>
+          <t>twodeepvt</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>cspiegler_</t>
+          <t>logan.seib</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>kayla.odeh</t>
+          <t>cicimontalvo</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>arnavjoshi.117</t>
+          <t>mayhew.3</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>jackamcgann3</t>
+          <t>reid_clark_</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>kumarram3574</t>
+          <t>kpantos_9</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>pranavrajavel</t>
+          <t>rkr1sh</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>d.zorovich</t>
+          <t>lilly_olejnicki</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>christopherdamronparker</t>
+          <t>jhd_11_</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>danielfeiste</t>
+          <t>seth_langenfeld</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>darceyhall_</t>
+          <t>kategrilliot</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>themikeyat</t>
+          <t>maddiemichaelangelo</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>annecit1986</t>
+          <t>chronoartz</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>karlyvallej0</t>
+          <t>heatherlusk</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>makayla_r18</t>
+          <t>juliamichalek1</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>jhd_11_</t>
+          <t>keeghandi</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>aaronwdew</t>
+          <t>parth_mm</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>nmullins_11</t>
+          <t>_collin_c</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>andrewwhitesml</t>
+          <t>you_silly_goose1</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>childishsteven</t>
+          <t>d_griffith5</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>julie.h.gary</t>
+          <t>sean.alorro</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ansley.bearden</t>
+          <t>holdenallard9</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>nottajetta</t>
+          <t>bluespamguy</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ryans437</t>
+          <t>mallory.hook</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>vt_bsa</t>
+          <t>liamhopee</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>queennn_jesss</t>
+          <t>jacobaluteyn</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>christian.ghxst</t>
+          <t>sam.shilly</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>jackparm_</t>
+          <t>elijahm00re</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>logankellum04</t>
+          <t>karis_white_</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ferlu_gomsan</t>
+          <t>charlietquinn</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ylee_o7</t>
+          <t>luke_thomas1324</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>eatcake_lifeisshort</t>
+          <t>kylecurtis05</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>matthew_fauvell</t>
+          <t>bdbakerr</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>mike_minnihan</t>
+          <t>_anikasinha</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>mariewickk</t>
+          <t>tineanik_3</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>marinazuppas</t>
+          <t>devon.clyde</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>samn_724</t>
+          <t>ion_ciobanu27</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>bkive98</t>
+          <t>aaron_kalotkin</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ben.herzog81</t>
+          <t>xkindastressedx</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>goliathfroggy</t>
+          <t>hayden.z_05</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>lilahshepherd</t>
+          <t>gfornuto</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>wehnerwilliam</t>
+          <t>lucas_sorraco</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>jamas05_</t>
+          <t>hannahmarie.3</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>chronoartz</t>
+          <t>carolinatrosson</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>michael.hanks_22</t>
+          <t>kkaldes</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>kinlee.stokes</t>
+          <t>melissajacobucci</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>pauldyer_3283</t>
+          <t>jacob_feurer18_</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>dominic.kittle</t>
+          <t>brayynerd</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>joseantoniolozamasias</t>
+          <t>darceyhall_</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>cicimontalvo</t>
+          <t>jacoposambuchi</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>mina_eke</t>
+          <t>robynchildress_</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ninahhuynh</t>
+          <t>carsonhoffman07</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>hughmannn3</t>
+          <t>alextwirls</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>daniel_adjeid</t>
+          <t>jose.lonc</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>caelkinney</t>
+          <t>josephine.scogna</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>emily.staton</t>
+          <t>bridgetcrotty</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>akessel06</t>
+          <t>fsonnlei</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>4_.jelly._4</t>
+          <t>c.mccomb_</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>gloncar14</t>
+          <t>gray_kutrieb</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ar15kd</t>
+          <t>jkittelm</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ldubm</t>
+          <t>vmcvm_sleeps</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>himadri_m_</t>
+          <t>zoeyries</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>gotardsam</t>
+          <t>abramsmith04</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>maddie.mooney</t>
+          <t>ccal.m.s</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>gunner.heath10</t>
+          <t>arian0600</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>arjuunnn_</t>
+          <t>nickdominguez.1</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>reagan_suzann3</t>
+          <t>cole_fuller22</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>amyfurball</t>
+          <t>nathan_byun</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>hassanromyo</t>
+          <t>maddy_helm</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>d.suarez50</t>
+          <t>ncleffi</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>_am1n</t>
+          <t>kareena.mehta_</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>annaa.a10</t>
+          <t>soren.0lsen</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>nick_aguilar23</t>
+          <t>marie.cacciabaudo</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ethant.healy</t>
+          <t>maya.agans</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>757.jakkob</t>
+          <t>jifraffe</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>j_shook2</t>
+          <t>reagan_suzann3</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>alexkim2.0</t>
+          <t>dennis.p.mclaughlin</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>kylecurtis05</t>
+          <t>s.h.a.s.h.aa.n.k</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>dennis.p.mclaughlin</t>
+          <t>karlyvallej0</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>elijahm00re</t>
+          <t>jamas05_</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>bellagormley</t>
+          <t>kaden_chavo24</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>liam_odriscoll1</t>
+          <t>beach.golfer</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>virginiafornash</t>
+          <t>ldubm</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>macie_kendrick</t>
+          <t>michael_.jenkins</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ryleelangdon</t>
+          <t>wetherbee.william</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>johnathan_mummert</t>
+          <t>brendancorey_</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ojola23</t>
+          <t>chef.toe.knee</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>joshprior101</t>
+          <t>andrewwhitesml</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>_nassimabouhabib_</t>
+          <t>ericalarochellee</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>kaden_chavo24</t>
+          <t>bb4546ss</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t_brown8</t>
+          <t>sophieflint_</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>dariya_radulova</t>
+          <t>grayson_semones</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>_as651</t>
+          <t>ahil.sarang</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>_k.pierce_</t>
+          <t>erinkingbaker</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>savannavaleroa</t>
+          <t>jacksonbuck_</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,1060 +4418,10 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>colebodnar4</t>
+          <t>scott.spencerjr</t>
         </is>
       </c>
       <c r="B399" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>jameson.pears</t>
-        </is>
-      </c>
-      <c r="B400" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>abbyhike</t>
-        </is>
-      </c>
-      <c r="B401" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>andrewchrisleyy</t>
-        </is>
-      </c>
-      <c r="B402" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>darby.welbaum</t>
-        </is>
-      </c>
-      <c r="B403" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>sam.w_0331</t>
-        </is>
-      </c>
-      <c r="B404" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>ashton.j.johns</t>
-        </is>
-      </c>
-      <c r="B405" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>ashlinhickss</t>
-        </is>
-      </c>
-      <c r="B406" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>kenna112704</t>
-        </is>
-      </c>
-      <c r="B407" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>mckennajstock</t>
-        </is>
-      </c>
-      <c r="B408" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>dhumphreyslex</t>
-        </is>
-      </c>
-      <c r="B409" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>emma.trinh</t>
-        </is>
-      </c>
-      <c r="B410" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>hansolovieff</t>
-        </is>
-      </c>
-      <c r="B411" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>24bellajean</t>
-        </is>
-      </c>
-      <c r="B412" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>kieran.sankowsky</t>
-        </is>
-      </c>
-      <c r="B413" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>kerriganallred</t>
-        </is>
-      </c>
-      <c r="B414" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>_james.hughes_</t>
-        </is>
-      </c>
-      <c r="B415" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>marisol.sage</t>
-        </is>
-      </c>
-      <c r="B416" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>liamsmith42</t>
-        </is>
-      </c>
-      <c r="B417" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>1badashraf</t>
-        </is>
-      </c>
-      <c r="B418" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>conor_r2001</t>
-        </is>
-      </c>
-      <c r="B419" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>tyler_lusczek</t>
-        </is>
-      </c>
-      <c r="B420" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>_hannahheemer_</t>
-        </is>
-      </c>
-      <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>miragx</t>
-        </is>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>chetmorris.66</t>
-        </is>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>jwerner19</t>
-        </is>
-      </c>
-      <c r="B424" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>gracebenderr</t>
-        </is>
-      </c>
-      <c r="B425" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>brettbabcock</t>
-        </is>
-      </c>
-      <c r="B426" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>lindagiffing</t>
-        </is>
-      </c>
-      <c r="B427" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>emceeemjay</t>
-        </is>
-      </c>
-      <c r="B428" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>asifchowdhury_</t>
-        </is>
-      </c>
-      <c r="B429" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>caugenst</t>
-        </is>
-      </c>
-      <c r="B430" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>hannahmarie.3</t>
-        </is>
-      </c>
-      <c r="B431" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>camcourson14</t>
-        </is>
-      </c>
-      <c r="B432" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>smz106</t>
-        </is>
-      </c>
-      <c r="B433" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>isabellekoster_</t>
-        </is>
-      </c>
-      <c r="B434" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>shaunagrau</t>
-        </is>
-      </c>
-      <c r="B435" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>adi_harish</t>
-        </is>
-      </c>
-      <c r="B436" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>milanjlowe</t>
-        </is>
-      </c>
-      <c r="B437" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>toni_green1</t>
-        </is>
-      </c>
-      <c r="B438" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>keepingsecretsfromu</t>
-        </is>
-      </c>
-      <c r="B439" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>milasjones4</t>
-        </is>
-      </c>
-      <c r="B440" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>anta.raj</t>
-        </is>
-      </c>
-      <c r="B441" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>loganrawlings</t>
-        </is>
-      </c>
-      <c r="B442" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>bridgetcrotty</t>
-        </is>
-      </c>
-      <c r="B443" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>rizerlea</t>
-        </is>
-      </c>
-      <c r="B444" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>willyvtuba</t>
-        </is>
-      </c>
-      <c r="B445" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>jose.lonc</t>
-        </is>
-      </c>
-      <c r="B446" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>mollyhatfield07</t>
-        </is>
-      </c>
-      <c r="B447" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>mattyanez_23</t>
-        </is>
-      </c>
-      <c r="B448" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>foundersinn</t>
-        </is>
-      </c>
-      <c r="B449" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>sam.shilly</t>
-        </is>
-      </c>
-      <c r="B450" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>elijah_klee</t>
-        </is>
-      </c>
-      <c r="B451" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>alexisanacho125</t>
-        </is>
-      </c>
-      <c r="B452" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>michaelcwandel</t>
-        </is>
-      </c>
-      <c r="B453" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>avertgyr</t>
-        </is>
-      </c>
-      <c r="B454" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>ame.lette</t>
-        </is>
-      </c>
-      <c r="B455" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>lexi.zettervall</t>
-        </is>
-      </c>
-      <c r="B456" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>lilibrownnn</t>
-        </is>
-      </c>
-      <c r="B457" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>pattylax_</t>
-        </is>
-      </c>
-      <c r="B458" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>gorencmf</t>
-        </is>
-      </c>
-      <c r="B459" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>jimena.macias_</t>
-        </is>
-      </c>
-      <c r="B460" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>imannzahraa</t>
-        </is>
-      </c>
-      <c r="B461" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>s.h.a.s.h.aa.n.k</t>
-        </is>
-      </c>
-      <c r="B462" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>lisaa.jacobs</t>
-        </is>
-      </c>
-      <c r="B463" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>yuvanesh.an</t>
-        </is>
-      </c>
-      <c r="B464" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>that_dude__chris</t>
-        </is>
-      </c>
-      <c r="B465" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>nicolebrinson_</t>
-        </is>
-      </c>
-      <c r="B466" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>egclimb3</t>
-        </is>
-      </c>
-      <c r="B467" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>patrickg_2_0</t>
-        </is>
-      </c>
-      <c r="B468" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>ryanheesters</t>
-        </is>
-      </c>
-      <c r="B469" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>ptghopper</t>
-        </is>
-      </c>
-      <c r="B470" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>bjorklund_ella</t>
-        </is>
-      </c>
-      <c r="B471" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>jjazm1n3</t>
-        </is>
-      </c>
-      <c r="B472" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>rhianon_w1</t>
-        </is>
-      </c>
-      <c r="B473" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>johnnyhunt94</t>
-        </is>
-      </c>
-      <c r="B474" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>ashleyvitulli</t>
-        </is>
-      </c>
-      <c r="B475" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>ishaqmir01</t>
-        </is>
-      </c>
-      <c r="B476" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>d_griffith5</t>
-        </is>
-      </c>
-      <c r="B477" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>keeghandi</t>
-        </is>
-      </c>
-      <c r="B478" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>adambridges81</t>
-        </is>
-      </c>
-      <c r="B479" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>anayeli.ayalaa</t>
-        </is>
-      </c>
-      <c r="B480" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>sofiagarrison</t>
-        </is>
-      </c>
-      <c r="B481" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>dewitzphilip</t>
-        </is>
-      </c>
-      <c r="B482" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>sofy.gonzalez_05</t>
-        </is>
-      </c>
-      <c r="B483" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>jevans_a7</t>
-        </is>
-      </c>
-      <c r="B484" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>kayla.keplinger</t>
-        </is>
-      </c>
-      <c r="B485" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>brittanychisena</t>
-        </is>
-      </c>
-      <c r="B486" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>scott979</t>
-        </is>
-      </c>
-      <c r="B487" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>noahab33</t>
-        </is>
-      </c>
-      <c r="B488" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>sdkrishnaa</t>
-        </is>
-      </c>
-      <c r="B489" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>ellad.wilbourn</t>
-        </is>
-      </c>
-      <c r="B490" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>emanelouassi</t>
-        </is>
-      </c>
-      <c r="B491" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>russellols04</t>
-        </is>
-      </c>
-      <c r="B492" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>haden_tolbert15</t>
-        </is>
-      </c>
-      <c r="B493" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>goldilocksgates</t>
-        </is>
-      </c>
-      <c r="B494" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>christine.looby</t>
-        </is>
-      </c>
-      <c r="B495" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>billy.t.02</t>
-        </is>
-      </c>
-      <c r="B496" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>fsonnlei</t>
-        </is>
-      </c>
-      <c r="B497" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>brendancorey_</t>
-        </is>
-      </c>
-      <c r="B498" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>alex_frank_3</t>
-        </is>
-      </c>
-      <c r="B499" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>aplowmannn</t>
-        </is>
-      </c>
-      <c r="B500" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>jkittelm</t>
-        </is>
-      </c>
-      <c r="B501" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>alanakpowell</t>
-        </is>
-      </c>
-      <c r="B502" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>mason.hinz</t>
-        </is>
-      </c>
-      <c r="B503" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>juliammeese</t>
-        </is>
-      </c>
-      <c r="B504" t="b">
         <v>0</v>
       </c>
     </row>
